--- a/RC/ig/StructureDefinition-TDE-BundleResultatReponseRechercheTraces.xlsx
+++ b/RC/ig/StructureDefinition-TDE-BundleResultatReponseRechercheTraces.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/StructureDefinition/TDE_BundleResultatReponseRechercheTraces</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/TDE_BundleResultatReponseRechercheTraces</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T08:28:00+00:00</t>
+    <t>2025-12-11T14:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -864,7 +864,7 @@
     <t>Bundle.entry:AuditEvent.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">AuditEvent {https://esante.gouv.fr/ci-sis/FHIR/StructureDefinition/TDE_AuditEvent}
+    <t xml:space="preserve">AuditEvent {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/TDE_AuditEvent}
 </t>
   </si>
   <si>
@@ -1291,7 +1291,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.30078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.44921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
